--- a/medicine/Enfance/Ivan_Kušan/Ivan_Kušan.xlsx
+++ b/medicine/Enfance/Ivan_Kušan/Ivan_Kušan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ivan_Ku%C5%A1an</t>
+          <t>Ivan_Kušan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivan Kušan, né le  30 août 1933 à Sarajevo et mort le 20 novembre 2012 à Zagreb, est un écrivain croate.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ivan_Ku%C5%A1an</t>
+          <t>Ivan_Kušan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'âge de 10 ans, Ivan Kušan découvre son talent d'écriture et écrit son premier roman.
 Plus tard, Ivan Kušan découvre le goût pour les voyages et les arts visuels. En 1950, il travaille à Radio Zagreb. De 1980 à 1994 il enseigne la dramaturgie à l'Académie des Arts de l'université de Zagreb.
